--- a/data/trans_bre/P26-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P26-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P26-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P26-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,7 +620,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,06</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -630,32 +630,32 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,81</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,29</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>27,01%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,08%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,0%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>0,17; 17,73</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-3,63; 13,34</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-4,38; 10,09</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0,08; 59,96</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,43; 44,35</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,86; 70,11</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,19</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,62</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,78</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,49</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,23%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,45%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,23%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,79%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,9; 14,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,08; 14,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,3; 16,06</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,56; 8,05</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,69; 64,54</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,69; 51,05</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,75; 79,06</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,46; 134,31</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,08</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,76</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,69</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,89%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,29%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>128,56%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,54; 19,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,8; 8,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,84; 1,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,27; 13,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,4; 84,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,46; 27,52</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,12; 8,78</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>50,15; 278,89</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,49</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,28</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,09%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,23%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,84%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,24; 20,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,32; 7,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,43; 7,72</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,58; 4,72</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,45; 81,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,11; 25,31</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,9; 31,5</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,11; 47,45</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,08</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,09</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,57</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,35%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,44%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,33%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>48,18%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,38; 11,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,53; 16,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,88; 2,28</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,69; 5,71</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,32; 48,02</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,6; 55,88</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,36; 10,05</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,6; 295,8</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,38</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,43</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,99</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,42%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,41%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,23%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,76%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,77; 20,55</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,26; 21,76</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,25; 13,82</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,41; 6,13</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,89; 84,74</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,28; 81,87</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,21; 70,4</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,5; 77,32</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,01</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,07</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,3</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,32%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,57%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,23%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,84%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,04; 13,06</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,07; 13,51</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,01; 8,43</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,96; 6,59</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,5; 47,45</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,22; 43,51</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,68; 35,19</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,99; 38,23</t>
         </is>
       </c>
     </row>
@@ -1320,42 +1320,42 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,04</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,07</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,72</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,0</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,19%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,12%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,7%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-49,43%</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,39; 11,19</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,09; 10,55</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,78; 1,75</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,76; 0,86</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,22; 43,93</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,24; 36,67</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,4; 8,36</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,02; 15,41</t>
         </is>
       </c>
     </row>
@@ -1420,42 +1420,42 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,45</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,85</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,51%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,78%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,05%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,2%</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,1; 11,01</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,44; 8,31</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,47; 3,74</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,07; 2,98</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,41; 39,68</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,35; 26,39</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,04; 15,56</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,47; 27,29</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P26-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P26-Provincia-trans_bre.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3,77</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,29</t>
+          <t>3,49</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,76%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>18,0%</t>
+          <t>18,41%</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,67; 12,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 10,09</t>
+          <t>-4,93; 11,44</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,68; 37,43</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-18,86; 70,11</t>
+          <t>-21,91; 78,13</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,49</t>
+          <t>2,74</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>37,79%</t>
+          <t>27,57%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 8,05</t>
+          <t>-2,81; 7,63</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-12,46; 134,31</t>
+          <t>-21,08; 122,24</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>8,69</t>
+          <t>8,89</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>128,56%</t>
+          <t>134,03%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,27; 13,13</t>
+          <t>4,43; 13,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>50,15; 278,89</t>
+          <t>52,23; 284,77</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,74</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-2,28</t>
+          <t>-5,08</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,23%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-15,84%</t>
+          <t>-34,63%</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 7,82</t>
+          <t>-5,97; 6,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-9,58; 4,72</t>
+          <t>-13,89; 1,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-9,11; 25,31</t>
+          <t>-17,94; 27,5</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-49,11; 47,45</t>
+          <t>-66,44; 22,29</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,1</t>
+          <t>2,22</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>48,18%</t>
+          <t>51,82%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 5,71</t>
+          <t>-2,38; 5,9</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-39,6; 295,8</t>
+          <t>-36,8; 292,19</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>8,76%</t>
+          <t>7,69%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 6,13</t>
+          <t>-4,66; 5,9</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-32,5; 77,32</t>
+          <t>-33,86; 73,46</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>-1,67</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>-8,61%</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,96; 6,59</t>
+          <t>-13,89; 5,84</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-36,99; 38,23</t>
+          <t>-57,27; 32,3</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-6,0</t>
+          <t>-26,75</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-49,43%</t>
+          <t>-81,48%</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-26,76; 0,86</t>
+          <t>-65,72; 0,72</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-83,02; 15,41</t>
+          <t>-92,93; 14,63</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>-5,61</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>5,2%</t>
+          <t>-30,36%</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 2,98</t>
+          <t>-27,68; 1,92</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-29,47; 27,29</t>
+          <t>-69,92; 17,47</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P26-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P26-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,17; 17,73</t>
+          <t>-0,79; 18,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 12,95</t>
+          <t>-4,77; 12,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 13,34</t>
+          <t>-3,61; 12,86</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,93; 11,44</t>
+          <t>-4,27; 12,63</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,08; 59,96</t>
+          <t>-2,15; 63,6</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-10,68; 37,43</t>
+          <t>-11,4; 35,37</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-9,43; 44,35</t>
+          <t>-10,04; 43,97</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-21,91; 78,13</t>
+          <t>-18,87; 94,26</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,9; 14,48</t>
+          <t>2,56; 14,3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,08; 14,82</t>
+          <t>2,29; 14,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,3; 16,06</t>
+          <t>4,13; 15,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 7,63</t>
+          <t>-2,16; 7,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,69; 64,54</t>
+          <t>9,05; 64,36</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,69; 51,05</t>
+          <t>5,99; 50,62</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>15,75; 79,06</t>
+          <t>15,41; 73,76</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-21,08; 122,24</t>
+          <t>-18,22; 117,61</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,54; 19,24</t>
+          <t>3,83; 18,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,8; 8,57</t>
+          <t>-8,17; 7,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,84; 1,12</t>
+          <t>-10,56; 0,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,43; 13,34</t>
+          <t>4,46; 13,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>11,4; 84,43</t>
+          <t>11,66; 77,89</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-17,46; 27,52</t>
+          <t>-20,88; 24,64</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-50,12; 8,78</t>
+          <t>-50,36; 4,31</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>52,23; 284,77</t>
+          <t>50,65; 281,23</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,24; 20,47</t>
+          <t>6,31; 20,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 6,89</t>
+          <t>-6,27; 6,99</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,43; 7,72</t>
+          <t>-6,54; 7,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-13,89; 1,93</t>
+          <t>-14,39; 1,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,45; 81,49</t>
+          <t>19,15; 81,8</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-17,94; 27,5</t>
+          <t>-19,79; 27,81</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-19,9; 31,5</t>
+          <t>-20,92; 31,1</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-66,44; 22,29</t>
+          <t>-69,56; 13,59</t>
         </is>
       </c>
     </row>
@@ -1068,49 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,38; 11,51</t>
+          <t>-7,47; 11,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 16,19</t>
+          <t>-2,37; 16,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-14,88; 2,28</t>
+          <t>-13,64; 2,8</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 5,9</t>
+          <t>-2,77; 5,73</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-22,32; 48,02</t>
+          <t>-21,79; 47,95</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 55,88</t>
+          <t>-5,37; 60,92</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-46,36; 10,05</t>
+          <t>-42,24; 13,99</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-36,8; 292,19</t>
+          <t>-38,88; 277,25</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,77; 20,55</t>
+          <t>3,23; 20,31</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,26; 21,76</t>
+          <t>4,99; 22,54</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 13,82</t>
+          <t>-1,95; 14,96</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 5,9</t>
+          <t>-4,64; 5,8</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,89; 84,74</t>
+          <t>10,16; 87,49</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>11,28; 81,87</t>
+          <t>15,28; 86,51</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-8,21; 70,4</t>
+          <t>-6,94; 74,87</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-33,86; 73,46</t>
+          <t>-33,88; 70,5</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,04; 13,06</t>
+          <t>2,54; 13,05</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,07; 13,51</t>
+          <t>2,48; 13,66</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 8,43</t>
+          <t>-1,41; 9,17</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-13,89; 5,84</t>
+          <t>-12,33; 5,93</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,5; 47,45</t>
+          <t>7,41; 48,61</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,22; 43,51</t>
+          <t>6,43; 44,41</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-6,68; 35,19</t>
+          <t>-4,65; 38,33</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-57,27; 32,3</t>
+          <t>-57,29; 32,28</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,39; 11,19</t>
+          <t>1,17; 11,18</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,09; 10,55</t>
+          <t>0,01; 9,55</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-6,78; 1,75</t>
+          <t>-7,41; 1,16</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-65,72; 0,72</t>
+          <t>-62,71; 1,17</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>4,22; 43,93</t>
+          <t>3,95; 43,88</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 36,67</t>
+          <t>-0,22; 33,13</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-27,4; 8,36</t>
+          <t>-29,16; 5,33</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-92,93; 14,63</t>
+          <t>-92,58; 21,77</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>6,1; 11,01</t>
+          <t>6,26; 11,12</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>3,44; 8,31</t>
+          <t>3,47; 8,21</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 3,74</t>
+          <t>-0,79; 3,66</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-27,68; 1,92</t>
+          <t>-25,19; 1,91</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>20,41; 39,68</t>
+          <t>21,02; 40,75</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>10,35; 26,39</t>
+          <t>9,83; 25,92</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 15,56</t>
+          <t>-3,1; 15,11</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-69,92; 17,47</t>
+          <t>-67,7; 16,58</t>
         </is>
       </c>
     </row>
